--- a/batterXS.xlsx
+++ b/batterXS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\03-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AF0C912-2721-4BD1-A960-D29F799046D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159B498-345E-44C9-93C7-7D107CDE2A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{0C89ADA6-9618-4359-88D3-C9363B7AC448}"/>
   </bookViews>
@@ -36,47 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="256">
-  <si>
-    <t>266新增一列</t>
-  </si>
-  <si>
-    <t>266 【Key】 列</t>
-  </si>
-  <si>
-    <t>266【Translate】列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>266【ToolRemark】列</t>
-  </si>
-  <si>
-    <t>文本负责人(PO)</t>
-  </si>
-  <si>
-    <t>inGameKey</t>
-  </si>
-  <si>
-    <t>原文(Origin)</t>
-  </si>
-  <si>
-    <t>文本状态(Used)</t>
-  </si>
-  <si>
-    <t>版本信息(Version)</t>
-  </si>
-  <si>
-    <t>文本所属区域(Region)</t>
-  </si>
-  <si>
-    <t>文本所属平台(Platform)</t>
-  </si>
-  <si>
-    <t>文本场景信息(Context)</t>
-  </si>
-  <si>
-    <t>266表名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="243">
   <si>
     <t>aokizhao</t>
   </si>
@@ -89,18 +49,9 @@
 用普通攻击和强化普攻命中对方宝可梦时会延长旋涡的时间，此效果最多为3次。</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>RB03</t>
   </si>
   <si>
-    <t>CN_only</t>
-  </si>
-  <si>
-    <t>All Platforms</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thttps://tapd.woa.com/tapd_fe/20403392/task/detail/1020403392075540582
 How: 宝可梦通行证信息和训练场招式描述
 Where: 宝可梦
@@ -121,9 +72,6 @@
   </si>
   <si>
     <t>B03</t>
-  </si>
-  <si>
-    <t>All_Platforms</t>
   </si>
   <si>
     <t xml:space="preserve">T【【国内B03】【英雄】【苍炎刃鬼】宝可梦一览特性1、2的文本描述显示的内容错误】
@@ -248,9 +196,6 @@
 在积蓄精神力量期间，可调整生成区域的位置。随后瞄准区域的中心发射猛烈燃烧的火球，对对方宝可梦造成&lt;game&gt;{2@RealTotalNumber}点&lt;/game&gt;&lt;color=#E07EFC&gt;&lt;lobby&gt;{2@SkillEffect1Para2}(+{2@SkillEffect1Para4%}特攻)&lt;/lobby&gt;伤害&lt;/color&gt;并将其击退至区域的外侧，使其在{3@Duration}秒内&lt;color=#FE7EC9&gt;无法动弹&lt;/color&gt;，之后获得巨额移速。</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thttps://tapd.woa.com/tapd_fe/20403392/task/detail/1020403392075540582
 How: 宝可梦通行证信息和训练场招式描述
 Where: 宝可梦
@@ -1069,12 +1014,32 @@
 What: 招式的描述-红莲铠骑-炭小侍-普通攻击
 </t>
   </si>
+  <si>
+    <t>PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToolRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1082,14 +1047,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1181,38 +1138,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1547,2153 +1498,1674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373AB992-9E43-4415-9072-92B5A0AC0425}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I87"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="122.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="294" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="294" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="294" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="406" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="294" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="406" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="210" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="364" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="378" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="378" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="378" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="378" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="406" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="210" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="364" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="154" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="378" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="378" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="378" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="378" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="406" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="D33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="308" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="154" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="392" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="364" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C38" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="378" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="11" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C40" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="308" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="11" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="392" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="H38" s="11" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="364" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="280" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C44" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="H39" s="11" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="378" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C45" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="H40" s="11" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="H41" s="11" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C47" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="H42" s="11" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="H43" s="11" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C49" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="H44" s="11" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="280" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="H45" s="11" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C51" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="H46" s="11" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C52" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="H47" s="11" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="H48" s="11" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="56" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="H49" s="11" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C55" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="H50" s="11" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="56" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C56" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="H51" s="11" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C57" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="H52" s="11" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C58" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="H53" s="11" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C59" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="H54" s="11" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C60" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="H55" s="11" t="s">
+      <c r="D60" s="5"/>
+      <c r="E60" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C61" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="H56" s="11" t="s">
+      <c r="D61" s="5"/>
+      <c r="E61" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C62" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="H57" s="11" t="s">
+      <c r="D62" s="5"/>
+      <c r="E62" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C63" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="H58" s="11" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C64" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="H59" s="11" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C65" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="H60" s="11" t="s">
+      <c r="D65" s="5"/>
+      <c r="E65" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C66" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="H61" s="11" t="s">
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="H62" s="11" t="s">
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="H63" s="11" t="s">
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="C69" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="H64" s="11" t="s">
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="H65" s="11" t="s">
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="84" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="H66" s="11" t="s">
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="70" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="C72" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="H67" s="11" t="s">
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="322" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="C73" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="C74" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C75" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="C76" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="C77" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="350" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C78" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="11" t="s">
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="C79" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="C80" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="336" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>56</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="11" t="s">
+      <c r="C81" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="322" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D74" t="s">
-        <v>56</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="11" t="s">
+      <c r="C82" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="D82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="11" t="s">
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" t="s">
-        <v>56</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="11" t="s">
+      <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D77" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="11" t="s">
+      <c r="C84" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="I77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="D84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="11" t="s">
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="I78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="350" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="11" t="s">
+      <c r="D85" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="I79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="9" t="s">
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="308" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-      <c r="H80" s="11" t="s">
+      <c r="C86" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="I80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="D86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="336" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D82" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D83" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D84" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D85" t="s">
-        <v>56</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D86" t="s">
-        <v>56</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="308" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D87" t="s">
-        <v>56</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I87" t="s">
-        <v>21</v>
+      <c r="F86" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>